--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="2260" windowWidth="12680" windowHeight="14920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="140">
   <si>
     <t>description</t>
   </si>
@@ -44,9 +44,6 @@
     <t>industry</t>
   </si>
   <si>
-    <t>constant</t>
-  </si>
-  <si>
     <t>1.A</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>domestic_transport</t>
   </si>
   <si>
-    <t>linear</t>
-  </si>
-  <si>
     <t>1.A.4</t>
   </si>
   <si>
@@ -440,20 +434,20 @@
     <t>ceds_sector</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>pre_ext_year</t>
   </si>
   <si>
     <t>post_ext_year</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,13 +471,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,7 +489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -532,12 +519,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -552,6 +540,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -566,6 +555,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -897,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -905,16 +895,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -958,160 +948,160 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1119,10 +1109,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1130,91 +1120,91 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1222,10 +1212,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1233,282 +1223,282 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="3:4">
@@ -1516,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="3:4">
@@ -1524,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="3:4">
@@ -1532,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="3:4">
@@ -1540,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="3:4">
@@ -1548,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1579,10 +1569,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1598,68 +1588,17 @@
       <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
+      <c r="B2" t="s">
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1675,82 +1614,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1965</v>
-      </c>
-      <c r="D2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1965</v>
-      </c>
-      <c r="D3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1965</v>
-      </c>
-      <c r="D4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D2" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>1965</v>
-      </c>
-      <c r="D5">
-        <v>2013</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="3700" yWindow="120" windowWidth="17580" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
   <si>
     <t>description</t>
   </si>
@@ -41,9 +41,6 @@
     <t>industrial processes</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
     <t>1.A</t>
   </si>
   <si>
@@ -62,39 +59,24 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>domestic_transport</t>
-  </si>
-  <si>
     <t>1.A.4</t>
   </si>
   <si>
     <t>Other Sectors</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>energytrans_heat_gen</t>
-  </si>
-  <si>
     <t>1.A.5</t>
   </si>
   <si>
     <t>Non Specified</t>
   </si>
   <si>
-    <t>energytrans_electricity_gen</t>
-  </si>
-  <si>
     <t>1.AA.1.A</t>
   </si>
   <si>
     <t>main activity electric and heat</t>
   </si>
   <si>
-    <t>energytrans_petr_refin</t>
-  </si>
-  <si>
     <t>1.AA.1.B</t>
   </si>
   <si>
@@ -107,36 +89,24 @@
     <t>manufacture of solid fuels and other energy industries</t>
   </si>
   <si>
-    <t>coal_production</t>
-  </si>
-  <si>
     <t>1.AA.2.A</t>
   </si>
   <si>
     <t>iron and steal</t>
   </si>
   <si>
-    <t>industry_minerals</t>
-  </si>
-  <si>
     <t>1.AA.2.B</t>
   </si>
   <si>
     <t>non ferrous metal</t>
   </si>
   <si>
-    <t>industry_comb</t>
-  </si>
-  <si>
     <t>1.AA.2.D</t>
   </si>
   <si>
     <t>pulp paper and print</t>
   </si>
   <si>
-    <t>industry_agriculture</t>
-  </si>
-  <si>
     <t>1.AA.2.E</t>
   </si>
   <si>
@@ -161,48 +131,30 @@
     <t>road transportation</t>
   </si>
   <si>
-    <t>transp_international_ship</t>
-  </si>
-  <si>
     <t>1.AA.3.C</t>
   </si>
   <si>
     <t>railways</t>
   </si>
   <si>
-    <t>transp_international_air</t>
-  </si>
-  <si>
     <t>1.AA.3.D</t>
   </si>
   <si>
     <t>waterbourne navigation</t>
   </si>
   <si>
-    <t>transp_domestic_ship</t>
-  </si>
-  <si>
     <t>1.AA.3.E</t>
   </si>
   <si>
     <t>other transportation</t>
   </si>
   <si>
-    <t>transp_domestic_air</t>
-  </si>
-  <si>
     <t>1.AA.4.A</t>
   </si>
   <si>
     <t>comercial_institutional</t>
   </si>
   <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>rescom_buildings</t>
-  </si>
-  <si>
     <t>1.AA.4.B</t>
   </si>
   <si>
@@ -386,42 +338,18 @@
     <t>Aviation</t>
   </si>
   <si>
-    <t>transp_road</t>
-  </si>
-  <si>
     <t>International Bunkers</t>
   </si>
   <si>
     <t>Marine</t>
   </si>
   <si>
-    <t>transp_rail</t>
-  </si>
-  <si>
     <t>Memo Items</t>
   </si>
   <si>
     <t>Multilateral Operations</t>
   </si>
   <si>
-    <t>transp_unspecified</t>
-  </si>
-  <si>
-    <t>process_Smelting</t>
-  </si>
-  <si>
-    <t>process_SAcidProduction</t>
-  </si>
-  <si>
-    <t>process_PulpPaper</t>
-  </si>
-  <si>
-    <t>process_Other</t>
-  </si>
-  <si>
-    <t>process_Al</t>
-  </si>
-  <si>
     <t>iso</t>
   </si>
   <si>
@@ -441,13 +369,121 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>paper_print</t>
+  </si>
+  <si>
+    <t>1A2d_Ind-Comb-Pulp-paper</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-product-use</t>
+  </si>
+  <si>
+    <t>2H_Pulp-and-paper-food-beverage-wood</t>
+  </si>
+  <si>
+    <t>electric_heat</t>
+  </si>
+  <si>
+    <t>1A1a_Electricity-public</t>
+  </si>
+  <si>
+    <t>1A1a_Electricity-autoproducer</t>
+  </si>
+  <si>
+    <t>1A1a_Heat-production</t>
+  </si>
+  <si>
+    <t>other_transformation</t>
+  </si>
+  <si>
+    <t>1A1bc_Other-transformation</t>
+  </si>
+  <si>
+    <t>1A2a_Ind-Comb-Iron-steel</t>
+  </si>
+  <si>
+    <t>1A2b_Ind-Comb-Non-ferrous-metals</t>
+  </si>
+  <si>
+    <t>1A2e_Ind-Comb-Food-tobacco</t>
+  </si>
+  <si>
+    <t>1A2f_Ind-Comb-Non-metalic-minerals</t>
+  </si>
+  <si>
+    <t>1A3b_Road</t>
+  </si>
+  <si>
+    <t>1A3c_Rail</t>
+  </si>
+  <si>
+    <t>1A3di_International-shipping</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-naviation</t>
+  </si>
+  <si>
+    <t>water_transport</t>
+  </si>
+  <si>
+    <t>1A3eii_Other-transp</t>
+  </si>
+  <si>
+    <t>1A3aii_Domestic-aviation</t>
+  </si>
+  <si>
+    <t>1A4a_Commercial-institutional</t>
+  </si>
+  <si>
+    <t>1A4b_Residential</t>
+  </si>
+  <si>
+    <t>1A4c_Agriculture-forestry-fishing</t>
+  </si>
+  <si>
+    <t>1A5_Other-unspecified</t>
+  </si>
+  <si>
+    <t>1B1_Fugitive-solid-fuels</t>
+  </si>
+  <si>
+    <t>1B2_Fugitive-petr-and-gas</t>
+  </si>
+  <si>
+    <t>2A1_Cement-production</t>
+  </si>
+  <si>
+    <t>other_minerals</t>
+  </si>
+  <si>
+    <t>2D3_Other-product-use</t>
+  </si>
+  <si>
+    <t>2A2_Lime-production</t>
+  </si>
+  <si>
+    <t>2A6_Other-minerals</t>
+  </si>
+  <si>
+    <t>2B_Chemical-industry</t>
+  </si>
+  <si>
+    <t>2C_Metal-production</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>1A3ai_International-aviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,6 +507,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -489,7 +532,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,11 +564,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -541,6 +607,17 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -556,6 +633,17 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,26 +973,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -922,9 +1015,6 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -948,598 +1038,666 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B46" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="C64" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="D74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1569,10 +1727,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1586,19 +1744,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1624,30 +1782,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="120" windowWidth="17580" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="9880" yWindow="480" windowWidth="17580" windowHeight="12540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,462 +21,537 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="177">
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>industrial processes</t>
+  </si>
+  <si>
+    <t>1.A</t>
+  </si>
+  <si>
+    <t>fuel combustion</t>
+  </si>
+  <si>
+    <t>1.A.1</t>
+  </si>
+  <si>
+    <t>energy indistries</t>
+  </si>
+  <si>
+    <t>1.A.4</t>
+  </si>
+  <si>
+    <t>Other Sectors</t>
+  </si>
+  <si>
+    <t>1.A.5</t>
+  </si>
+  <si>
+    <t>Non Specified</t>
+  </si>
+  <si>
+    <t>1.AA.1.A</t>
+  </si>
+  <si>
+    <t>main activity electric and heat</t>
+  </si>
+  <si>
+    <t>1.AA.1.B</t>
+  </si>
+  <si>
+    <t>petroleum refining</t>
+  </si>
+  <si>
+    <t>1.AA.1.C</t>
+  </si>
+  <si>
+    <t>manufacture of solid fuels and other energy industries</t>
+  </si>
+  <si>
+    <t>1.AA.2.A</t>
+  </si>
+  <si>
+    <t>iron and steal</t>
+  </si>
+  <si>
+    <t>1.AA.2.B</t>
+  </si>
+  <si>
+    <t>non ferrous metal</t>
+  </si>
+  <si>
+    <t>1.AA.2.D</t>
+  </si>
+  <si>
+    <t>pulp paper and print</t>
+  </si>
+  <si>
+    <t>1.AA.2.E</t>
+  </si>
+  <si>
+    <t>food processing</t>
+  </si>
+  <si>
+    <t>1.AA.2.F</t>
+  </si>
+  <si>
+    <t>non metallic minerals</t>
+  </si>
+  <si>
+    <t>1.AA.3.A</t>
+  </si>
+  <si>
+    <t>civil aviation</t>
+  </si>
+  <si>
+    <t>1.AA.3.B</t>
+  </si>
+  <si>
+    <t>road transportation</t>
+  </si>
+  <si>
+    <t>1.AA.3.C</t>
+  </si>
+  <si>
+    <t>railways</t>
+  </si>
+  <si>
+    <t>1.AA.3.D</t>
+  </si>
+  <si>
+    <t>waterbourne navigation</t>
+  </si>
+  <si>
+    <t>1.AA.3.E</t>
+  </si>
+  <si>
+    <t>other transportation</t>
+  </si>
+  <si>
+    <t>1.AA.4.A</t>
+  </si>
+  <si>
+    <t>comercial_institutional</t>
+  </si>
+  <si>
+    <t>1.AA.4.B</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>1.AA.4.C</t>
+  </si>
+  <si>
+    <t>agriculture/forestry</t>
+  </si>
+  <si>
+    <t>1.AA.5.B</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>1.B</t>
+  </si>
+  <si>
+    <t>Fugitive Emissions from Fuels</t>
+  </si>
+  <si>
+    <t>1.B.1.A</t>
+  </si>
+  <si>
+    <t>coal mining and handling</t>
+  </si>
+  <si>
+    <t>1.B.1.B</t>
+  </si>
+  <si>
+    <t>uncontrolled combustion and burning coal dumps</t>
+  </si>
+  <si>
+    <t>1.B.1.C</t>
+  </si>
+  <si>
+    <t>solid fuel transformation</t>
+  </si>
+  <si>
+    <t>1.B.2</t>
+  </si>
+  <si>
+    <t>oil and nat gas</t>
+  </si>
+  <si>
+    <t>1.B.2.A</t>
+  </si>
+  <si>
+    <t>fugitive emissions - oil</t>
+  </si>
+  <si>
+    <t>1.B.2.B</t>
+  </si>
+  <si>
+    <t>fugitive emissions - natural gas</t>
+  </si>
+  <si>
+    <t>1.B.2.C</t>
+  </si>
+  <si>
+    <t>venting and flaring</t>
+  </si>
+  <si>
+    <t>1.B.2.C.1</t>
+  </si>
+  <si>
+    <t>1.B.2.C.2</t>
+  </si>
+  <si>
+    <t>1.B.2.D</t>
+  </si>
+  <si>
+    <t>other fugitive</t>
+  </si>
+  <si>
+    <t>2.A.1</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>2.A.6</t>
+  </si>
+  <si>
+    <t>road paving asphalt</t>
+  </si>
+  <si>
+    <t>2.A.7</t>
+  </si>
+  <si>
+    <t>quarrying and mining not coal</t>
+  </si>
+  <si>
+    <t>2.B.1</t>
+  </si>
+  <si>
+    <t>ammonia production</t>
+  </si>
+  <si>
+    <t>2.B.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprolactam, Glyoxal and Glyoxylic Acid </t>
+  </si>
+  <si>
+    <t>2.B.5</t>
+  </si>
+  <si>
+    <t>carbide production</t>
+  </si>
+  <si>
+    <t>2.C</t>
+  </si>
+  <si>
+    <t>metal industry</t>
+  </si>
+  <si>
+    <t>2.C.1</t>
+  </si>
+  <si>
+    <t>2.C.2</t>
+  </si>
+  <si>
+    <t>2.C.3</t>
+  </si>
+  <si>
+    <t>2.C.5</t>
+  </si>
+  <si>
+    <t>2.D</t>
+  </si>
+  <si>
+    <t>non energy products from fuels and solvent</t>
+  </si>
+  <si>
+    <t>2.G</t>
+  </si>
+  <si>
+    <t>other product manufacturing</t>
+  </si>
+  <si>
+    <t>4.D</t>
+  </si>
+  <si>
+    <t>wastewater treatment and discharge</t>
+  </si>
+  <si>
+    <t>6.C</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>6.D</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>International Bunkers</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Memo Items</t>
+  </si>
+  <si>
+    <t>Multilateral Operations</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>inv_sector</t>
+  </si>
+  <si>
+    <t>scaling_sector</t>
+  </si>
+  <si>
+    <t>ceds_sector</t>
+  </si>
+  <si>
+    <t>pre_ext_year</t>
+  </si>
+  <si>
+    <t>post_ext_year</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1A2d_Ind-Comb-Pulp-paper</t>
+  </si>
+  <si>
+    <t>2H_Pulp-and-paper-food-beverage-wood</t>
+  </si>
+  <si>
+    <t>electric_heat</t>
+  </si>
+  <si>
+    <t>1A1a_Electricity-public</t>
+  </si>
+  <si>
+    <t>1A1a_Electricity-autoproducer</t>
+  </si>
+  <si>
+    <t>1A1a_Heat-production</t>
+  </si>
+  <si>
+    <t>other_transformation</t>
+  </si>
+  <si>
+    <t>1A1bc_Other-transformation</t>
+  </si>
+  <si>
+    <t>1A2a_Ind-Comb-Iron-steel</t>
+  </si>
+  <si>
+    <t>1A2b_Ind-Comb-Non-ferrous-metals</t>
+  </si>
+  <si>
+    <t>1A2e_Ind-Comb-Food-tobacco</t>
+  </si>
+  <si>
+    <t>1A2f_Ind-Comb-Non-metalic-minerals</t>
+  </si>
+  <si>
+    <t>1A3b_Road</t>
+  </si>
+  <si>
+    <t>1A3c_Rail</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-naviation</t>
+  </si>
+  <si>
+    <t>1A3eii_Other-transp</t>
+  </si>
+  <si>
+    <t>1A4a_Commercial-institutional</t>
+  </si>
+  <si>
+    <t>1A4b_Residential</t>
+  </si>
+  <si>
+    <t>1A4c_Agriculture-forestry-fishing</t>
+  </si>
+  <si>
+    <t>1A5_Other-unspecified</t>
+  </si>
+  <si>
+    <t>1B1_Fugitive-solid-fuels</t>
+  </si>
+  <si>
+    <t>1B2_Fugitive-petr-and-gas</t>
+  </si>
+  <si>
+    <t>2A1_Cement-production</t>
+  </si>
+  <si>
+    <t>2A2_Lime-production</t>
+  </si>
+  <si>
+    <t>2A6_Other-minerals</t>
+  </si>
+  <si>
+    <t>2B_Chemical-industry</t>
+  </si>
+  <si>
+    <t>2C_Metal-production</t>
+  </si>
+  <si>
+    <t>1A3ai_International-aviation</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
+  </si>
+  <si>
+    <t>1A2c_Ind-Comb-Chemicals</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-Construction</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-transpequip</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-machinery</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-mining-quarying</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-wood-products</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-textile-leather</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-other</t>
+  </si>
+  <si>
+    <t>1B2d_Fugitive-other-energy</t>
+  </si>
+  <si>
+    <t>2D_Degreasing-Cleaning</t>
+  </si>
+  <si>
+    <t>2D_Paint-application</t>
+  </si>
+  <si>
+    <t>3B_Manure-management</t>
+  </si>
+  <si>
+    <t>3D_Soil-emissions</t>
+  </si>
+  <si>
+    <t>3I_Agriculture-other</t>
+  </si>
+  <si>
+    <t>3D_Rice-Cultivation</t>
+  </si>
+  <si>
+    <t>3E_Enteric-fermentation</t>
+  </si>
+  <si>
+    <t>3F_Agricultural-residue-burning-on-fields</t>
+  </si>
+  <si>
+    <t>5A_Solid-waste-disposal</t>
+  </si>
+  <si>
+    <t>5E_Other-waste-handling</t>
+  </si>
+  <si>
+    <t>5C_Waste-incineration</t>
+  </si>
+  <si>
+    <t>6A_Other-in-total</t>
+  </si>
+  <si>
+    <t>5D_Wastewater-handling</t>
+  </si>
+  <si>
+    <t>6B_Other-not-in-total</t>
+  </si>
+  <si>
+    <t>7A_Fossil-fuel-fires</t>
+  </si>
+  <si>
+    <t>11A_Volcanoes</t>
+  </si>
+  <si>
+    <t>11B_Forest-fires</t>
+  </si>
+  <si>
+    <t>11C_Other-natural</t>
+  </si>
+  <si>
+    <t>1.A.2</t>
+  </si>
+  <si>
+    <t>Industry Combustion</t>
+  </si>
+  <si>
+    <t>industry_combustion</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>RCO</t>
+  </si>
+  <si>
+    <t>Not in CEDS</t>
+  </si>
+  <si>
+    <t>select_scaling_year</t>
+  </si>
+  <si>
+    <t>start_scaling_year</t>
+  </si>
+  <si>
+    <t>end_scaling_year</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>grc</t>
+  </si>
+  <si>
+    <t>2006, 2010</t>
+  </si>
+  <si>
+    <t>solvents</t>
+  </si>
+  <si>
+    <t>other_transport</t>
+  </si>
+  <si>
     <t>pre_ext_method</t>
   </si>
   <si>
+    <t>interp_method</t>
+  </si>
+  <si>
     <t>post_ext_method</t>
-  </si>
-  <si>
-    <t>interp_method</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>industrial processes</t>
-  </si>
-  <si>
-    <t>1.A</t>
-  </si>
-  <si>
-    <t>fuel combustion</t>
-  </si>
-  <si>
-    <t>1.A.1</t>
-  </si>
-  <si>
-    <t>energy indistries</t>
-  </si>
-  <si>
-    <t>1.A.3</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>1.A.4</t>
-  </si>
-  <si>
-    <t>Other Sectors</t>
-  </si>
-  <si>
-    <t>1.A.5</t>
-  </si>
-  <si>
-    <t>Non Specified</t>
-  </si>
-  <si>
-    <t>1.AA.1.A</t>
-  </si>
-  <si>
-    <t>main activity electric and heat</t>
-  </si>
-  <si>
-    <t>1.AA.1.B</t>
-  </si>
-  <si>
-    <t>petroleum refining</t>
-  </si>
-  <si>
-    <t>1.AA.1.C</t>
-  </si>
-  <si>
-    <t>manufacture of solid fuels and other energy industries</t>
-  </si>
-  <si>
-    <t>1.AA.2.A</t>
-  </si>
-  <si>
-    <t>iron and steal</t>
-  </si>
-  <si>
-    <t>1.AA.2.B</t>
-  </si>
-  <si>
-    <t>non ferrous metal</t>
-  </si>
-  <si>
-    <t>1.AA.2.D</t>
-  </si>
-  <si>
-    <t>pulp paper and print</t>
-  </si>
-  <si>
-    <t>1.AA.2.E</t>
-  </si>
-  <si>
-    <t>food processing</t>
-  </si>
-  <si>
-    <t>1.AA.2.F</t>
-  </si>
-  <si>
-    <t>non metallic minerals</t>
-  </si>
-  <si>
-    <t>1.AA.3.A</t>
-  </si>
-  <si>
-    <t>civil aviation</t>
-  </si>
-  <si>
-    <t>1.AA.3.B</t>
-  </si>
-  <si>
-    <t>road transportation</t>
-  </si>
-  <si>
-    <t>1.AA.3.C</t>
-  </si>
-  <si>
-    <t>railways</t>
-  </si>
-  <si>
-    <t>1.AA.3.D</t>
-  </si>
-  <si>
-    <t>waterbourne navigation</t>
-  </si>
-  <si>
-    <t>1.AA.3.E</t>
-  </si>
-  <si>
-    <t>other transportation</t>
-  </si>
-  <si>
-    <t>1.AA.4.A</t>
-  </si>
-  <si>
-    <t>comercial_institutional</t>
-  </si>
-  <si>
-    <t>1.AA.4.B</t>
-  </si>
-  <si>
-    <t>residential</t>
-  </si>
-  <si>
-    <t>1.AA.4.C</t>
-  </si>
-  <si>
-    <t>agriculture/forestry</t>
-  </si>
-  <si>
-    <t>1.AA.5.B</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>1.B</t>
-  </si>
-  <si>
-    <t>Fugitive Emissions from Fuels</t>
-  </si>
-  <si>
-    <t>1.B.1.A</t>
-  </si>
-  <si>
-    <t>coal mining and handling</t>
-  </si>
-  <si>
-    <t>1.B.1.B</t>
-  </si>
-  <si>
-    <t>uncontrolled combustion and burning coal dumps</t>
-  </si>
-  <si>
-    <t>1.B.1.C</t>
-  </si>
-  <si>
-    <t>solid fuel transformation</t>
-  </si>
-  <si>
-    <t>1.B.2</t>
-  </si>
-  <si>
-    <t>oil and nat gas</t>
-  </si>
-  <si>
-    <t>1.B.2.A</t>
-  </si>
-  <si>
-    <t>fugitive emissions - oil</t>
-  </si>
-  <si>
-    <t>1.B.2.B</t>
-  </si>
-  <si>
-    <t>fugitive emissions - natural gas</t>
-  </si>
-  <si>
-    <t>1.B.2.C</t>
-  </si>
-  <si>
-    <t>venting and flaring</t>
-  </si>
-  <si>
-    <t>1.B.2.C.1</t>
-  </si>
-  <si>
-    <t>1.B.2.C.2</t>
-  </si>
-  <si>
-    <t>1.B.2.D</t>
-  </si>
-  <si>
-    <t>other fugitive</t>
-  </si>
-  <si>
-    <t>2.A.1</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>2.A.6</t>
-  </si>
-  <si>
-    <t>road paving asphalt</t>
-  </si>
-  <si>
-    <t>2.A.7</t>
-  </si>
-  <si>
-    <t>quarrying and mining not coal</t>
-  </si>
-  <si>
-    <t>2.A.7.1</t>
-  </si>
-  <si>
-    <t>2.B.1</t>
-  </si>
-  <si>
-    <t>ammonia production</t>
-  </si>
-  <si>
-    <t>2.B.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caprolactam, Glyoxal and Glyoxylic Acid </t>
-  </si>
-  <si>
-    <t>2.B.5</t>
-  </si>
-  <si>
-    <t>carbide production</t>
-  </si>
-  <si>
-    <t>2.C</t>
-  </si>
-  <si>
-    <t>metal industry</t>
-  </si>
-  <si>
-    <t>2.C.1</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>2.C.2</t>
-  </si>
-  <si>
-    <t>ferroalloys production</t>
-  </si>
-  <si>
-    <t>2.C.3</t>
-  </si>
-  <si>
-    <t>aluminum</t>
-  </si>
-  <si>
-    <t>2.C.5</t>
-  </si>
-  <si>
-    <t>lead</t>
-  </si>
-  <si>
-    <t>2.D</t>
-  </si>
-  <si>
-    <t>non energy products from fuels and solvent</t>
-  </si>
-  <si>
-    <t>2.D.1</t>
-  </si>
-  <si>
-    <t>lubricant</t>
-  </si>
-  <si>
-    <t>2.G</t>
-  </si>
-  <si>
-    <t>other product manufacturing</t>
-  </si>
-  <si>
-    <t>4.D</t>
-  </si>
-  <si>
-    <t>wastewater treatment and discharge</t>
-  </si>
-  <si>
-    <t>6.C</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>6.D</t>
-  </si>
-  <si>
-    <t>Aviation</t>
-  </si>
-  <si>
-    <t>International Bunkers</t>
-  </si>
-  <si>
-    <t>Marine</t>
-  </si>
-  <si>
-    <t>Memo Items</t>
-  </si>
-  <si>
-    <t>Multilateral Operations</t>
-  </si>
-  <si>
-    <t>iso</t>
-  </si>
-  <si>
-    <t>inv_sector</t>
-  </si>
-  <si>
-    <t>scaling_sector</t>
-  </si>
-  <si>
-    <t>ceds_sector</t>
-  </si>
-  <si>
-    <t>pre_ext_year</t>
-  </si>
-  <si>
-    <t>post_ext_year</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>paper_print</t>
-  </si>
-  <si>
-    <t>1A2d_Ind-Comb-Pulp-paper</t>
-  </si>
-  <si>
-    <t>2D3_Chemical-product-use</t>
-  </si>
-  <si>
-    <t>2H_Pulp-and-paper-food-beverage-wood</t>
-  </si>
-  <si>
-    <t>electric_heat</t>
-  </si>
-  <si>
-    <t>1A1a_Electricity-public</t>
-  </si>
-  <si>
-    <t>1A1a_Electricity-autoproducer</t>
-  </si>
-  <si>
-    <t>1A1a_Heat-production</t>
-  </si>
-  <si>
-    <t>other_transformation</t>
-  </si>
-  <si>
-    <t>1A1bc_Other-transformation</t>
-  </si>
-  <si>
-    <t>1A2a_Ind-Comb-Iron-steel</t>
-  </si>
-  <si>
-    <t>1A2b_Ind-Comb-Non-ferrous-metals</t>
-  </si>
-  <si>
-    <t>1A2e_Ind-Comb-Food-tobacco</t>
-  </si>
-  <si>
-    <t>1A2f_Ind-Comb-Non-metalic-minerals</t>
-  </si>
-  <si>
-    <t>1A3b_Road</t>
-  </si>
-  <si>
-    <t>1A3c_Rail</t>
-  </si>
-  <si>
-    <t>1A3di_International-shipping</t>
-  </si>
-  <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
-    <t>water_transport</t>
-  </si>
-  <si>
-    <t>1A3eii_Other-transp</t>
-  </si>
-  <si>
-    <t>1A3aii_Domestic-aviation</t>
-  </si>
-  <si>
-    <t>1A4a_Commercial-institutional</t>
-  </si>
-  <si>
-    <t>1A4b_Residential</t>
-  </si>
-  <si>
-    <t>1A4c_Agriculture-forestry-fishing</t>
-  </si>
-  <si>
-    <t>1A5_Other-unspecified</t>
-  </si>
-  <si>
-    <t>1B1_Fugitive-solid-fuels</t>
-  </si>
-  <si>
-    <t>1B2_Fugitive-petr-and-gas</t>
-  </si>
-  <si>
-    <t>2A1_Cement-production</t>
-  </si>
-  <si>
-    <t>other_minerals</t>
-  </si>
-  <si>
-    <t>2D3_Other-product-use</t>
-  </si>
-  <si>
-    <t>2A2_Lime-production</t>
-  </si>
-  <si>
-    <t>2A6_Other-minerals</t>
-  </si>
-  <si>
-    <t>2B_Chemical-industry</t>
-  </si>
-  <si>
-    <t>2C_Metal-production</t>
-  </si>
-  <si>
-    <t>aviation</t>
-  </si>
-  <si>
-    <t>1A3ai_International-aviation</t>
   </si>
 </sst>
 </file>
@@ -532,7 +607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,12 +661,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -618,6 +781,49 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -644,6 +850,49 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,10 +1222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -988,16 +1238,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1005,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1013,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1038,666 +1288,793 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
-        <v>148</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
       <c r="C48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="D74" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" t="s">
+    <row r="77" spans="1:4">
+      <c r="D77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
         <v>134</v>
       </c>
-      <c r="D70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" t="s">
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" t="s">
         <v>144</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="94" spans="3:4">
+      <c r="D94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="D95" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" t="s">
+    <row r="96" spans="3:4">
+      <c r="D96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="3:4">
-      <c r="C73" t="s">
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="1" t="s">
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
-      <c r="D74" s="1"/>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5">
+      <c r="D114" t="s">
+        <v>157</v>
+      </c>
+      <c r="E114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1715,7 +2092,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1727,36 +2104,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1772,40 +2149,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="480" windowWidth="17580" windowHeight="12540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="176">
   <si>
     <t>description</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>grc</t>
-  </si>
-  <si>
-    <t>2006, 2010</t>
   </si>
   <si>
     <t>solvents</t>
@@ -607,8 +604,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -754,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -824,6 +823,7 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -893,6 +893,7 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1463,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
         <v>118</v>
@@ -1477,7 +1478,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -1780,7 +1781,7 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>132</v>
@@ -1788,7 +1789,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="C61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -1796,7 +1797,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="C62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
         <v>143</v>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>132</v>
@@ -2110,13 +2111,13 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2149,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2193,13 +2194,36 @@
       <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>171</v>
+      <c r="E2" s="3">
+        <v>2006</v>
       </c>
       <c r="F2" t="s">
         <v>103</v>
       </c>
       <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
         <v>103</v>
       </c>
     </row>

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3220" yWindow="200" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="178">
   <si>
     <t>description</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>post_ext_method</t>
+  </si>
+  <si>
+    <t>2.D.1</t>
+  </si>
+  <si>
+    <t>2.D.2</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,14 +752,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -824,6 +869,26 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -894,6 +959,26 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1223,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1547,12 +1632,6 @@
       <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
@@ -1561,6 +1640,12 @@
       <c r="B35" t="s">
         <v>48</v>
       </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
@@ -1569,7 +1654,9 @@
       <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
@@ -1578,7 +1665,9 @@
       <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
@@ -1788,19 +1877,13 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="C61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" t="s">
-        <v>142</v>
+      <c r="A61" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="C62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
+      <c r="A62" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1808,101 +1891,101 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="D74" t="s">
+    <row r="76" spans="1:4">
+      <c r="D76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="D77" s="1" t="s">
+    <row r="79" spans="1:4">
+      <c r="D79" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="80" spans="1:4">
-      <c r="C80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" t="s">
-        <v>113</v>
-      </c>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
         <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="3:4">
@@ -1910,7 +1993,7 @@
         <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="3:4">
@@ -1918,7 +2001,7 @@
         <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="3:4">
@@ -1926,7 +2009,7 @@
         <v>162</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="3:4">
@@ -1934,7 +2017,7 @@
         <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="3:4">
@@ -1942,7 +2025,7 @@
         <v>162</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="3:4">
@@ -1950,7 +2033,7 @@
         <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="3:4">
@@ -1958,7 +2041,7 @@
         <v>162</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="3:4">
@@ -1966,7 +2049,7 @@
         <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="3:4">
@@ -1974,7 +2057,7 @@
         <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="3:4">
@@ -1982,88 +2065,88 @@
         <v>162</v>
       </c>
       <c r="D91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="D93" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="D94" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="D95" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="D96" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="D113" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5">
-      <c r="D114" t="s">
-        <v>157</v>
-      </c>
-      <c r="E114" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="115" spans="4:5">
       <c r="D115" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
         <v>165</v>
@@ -2071,9 +2154,25 @@
     </row>
     <row r="116" spans="4:5">
       <c r="D116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118" t="s">
         <v>159</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E118" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2152,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2194,7 +2293,7 @@
       <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2006</v>
       </c>
       <c r="F2" t="s">
@@ -2217,7 +2316,7 @@
       <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2010</v>
       </c>
       <c r="F3" t="s">

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="200" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="11700" yWindow="7880" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="184">
   <si>
     <t>description</t>
   </si>
@@ -555,6 +555,24 @@
   </si>
   <si>
     <t>2.D.2</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Aluminium Production</t>
+  </si>
+  <si>
+    <t>Ferroalloys Production</t>
+  </si>
+  <si>
+    <t>Iron and Steel Production</t>
+  </si>
+  <si>
+    <t>Pulp and Paper</t>
+  </si>
+  <si>
+    <t>Food and Drink</t>
   </si>
 </sst>
 </file>
@@ -610,8 +628,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -798,7 +834,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -889,6 +925,15 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -979,6 +1024,15 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,8 +1365,8 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1846,21 +1900,33 @@
       <c r="A56" t="s">
         <v>79</v>
       </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>80</v>
       </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>81</v>
       </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>82</v>
       </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
@@ -1880,10 +1946,16 @@
       <c r="A61" t="s">
         <v>176</v>
       </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>177</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:4">

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="7880" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="198">
   <si>
     <t>description</t>
   </si>
@@ -536,9 +536,6 @@
     <t>grc</t>
   </si>
   <si>
-    <t>solvents</t>
-  </si>
-  <si>
     <t>other_transport</t>
   </si>
   <si>
@@ -573,6 +570,51 @@
   </si>
   <si>
     <t>Food and Drink</t>
+  </si>
+  <si>
+    <t>Wastewater-handling</t>
+  </si>
+  <si>
+    <t>3 Solvent and Other Product Use</t>
+  </si>
+  <si>
+    <t>3.A Paint Application</t>
+  </si>
+  <si>
+    <t>3.B Degreasing and Dry Cleaning</t>
+  </si>
+  <si>
+    <t>3.C Chemical Products, Manufacture and Processing</t>
+  </si>
+  <si>
+    <t>3.D.5 Other</t>
+  </si>
+  <si>
+    <t>3.A</t>
+  </si>
+  <si>
+    <t>3.B</t>
+  </si>
+  <si>
+    <t>3.C</t>
+  </si>
+  <si>
+    <t>3.D.5</t>
+  </si>
+  <si>
+    <t>Degreasing-Cleaning</t>
+  </si>
+  <si>
+    <t>Paint-application</t>
+  </si>
+  <si>
+    <t>Chemical-products</t>
+  </si>
+  <si>
+    <t>2D3_Other-product-use</t>
+  </si>
+  <si>
+    <t>Other-product-use</t>
   </si>
 </sst>
 </file>
@@ -628,8 +670,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -834,7 +912,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -934,6 +1012,24 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1033,6 +1129,24 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,11 +1476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1602,9 +1716,6 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
-        <v>172</v>
-      </c>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -1617,7 +1728,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -1901,7 +2012,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1909,7 +2020,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1917,7 +2028,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1925,7 +2036,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1936,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
         <v>132</v>
@@ -1944,152 +2055,163 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
       <c r="C63" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
+      <c r="B65" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13" customHeight="1">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>92</v>
+        <v>188</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="D76" t="s">
+    <row r="80" spans="1:4">
+      <c r="D80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="D79" s="1" t="s">
+    <row r="83" spans="3:4">
+      <c r="D83" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="84" spans="3:4">
-      <c r="C84" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" t="s">
-        <v>104</v>
-      </c>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" t="s">
         <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="3:4">
@@ -2097,7 +2219,7 @@
         <v>162</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="3:4">
@@ -2105,7 +2227,7 @@
         <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="3:4">
@@ -2113,7 +2235,7 @@
         <v>162</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="3:4">
@@ -2121,7 +2243,7 @@
         <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="3:4">
@@ -2129,7 +2251,7 @@
         <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="3:4">
@@ -2137,7 +2259,7 @@
         <v>162</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="3:4">
@@ -2145,7 +2267,7 @@
         <v>162</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="3:4">
@@ -2153,98 +2275,125 @@
         <v>162</v>
       </c>
       <c r="D93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="3:4">
-      <c r="D95" t="s">
+    <row r="99" spans="3:4">
+      <c r="D99" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4">
-      <c r="D96" t="s">
+    <row r="100" spans="3:4">
+      <c r="D100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
-      <c r="D97" t="s">
+    <row r="101" spans="3:4">
+      <c r="D101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="4:4">
-      <c r="D98" t="s">
+    <row r="102" spans="3:4">
+      <c r="D102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
-      <c r="D99" t="s">
+    <row r="103" spans="3:4">
+      <c r="D103" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
-      <c r="D101" t="s">
+    <row r="105" spans="3:4">
+      <c r="D105" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
-      <c r="D102" t="s">
+    <row r="106" spans="3:4">
+      <c r="D106" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
-      <c r="D103" t="s">
+    <row r="107" spans="3:4">
+      <c r="D107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
-      <c r="D104" t="s">
+    <row r="108" spans="3:4">
+      <c r="D108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
-      <c r="D105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" t="s">
+    <row r="110" spans="3:4">
+      <c r="D110" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
-      <c r="D107" t="s">
+    <row r="111" spans="3:4">
+      <c r="D111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="4:5">
-      <c r="D115" t="s">
+    <row r="119" spans="4:5">
+      <c r="D119" t="s">
         <v>149</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E119" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="4:5">
-      <c r="D116" t="s">
+    <row r="120" spans="4:5">
+      <c r="D120" t="s">
         <v>157</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="4:5">
-      <c r="D117" t="s">
+    <row r="121" spans="4:5">
+      <c r="D121" t="s">
         <v>158</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E121" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="4:5">
-      <c r="D118" t="s">
+    <row r="122" spans="4:5">
+      <c r="D122" t="s">
         <v>159</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E122" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2282,13 +2431,13 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>174</v>
-      </c>
-      <c r="E1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="17280" yWindow="4820" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,6 @@
     <t>1A3c_Rail</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
   </si>
   <si>
@@ -615,6 +612,9 @@
   </si>
   <si>
     <t>Other-product-use</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1478,9 +1478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" t="s">
-        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -1717,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1728,10 +1728,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1742,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1756,10 +1756,10 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1770,10 +1770,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1784,10 +1784,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1806,10 +1806,10 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1842,18 +1842,18 @@
         <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1913,26 +1913,26 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="C47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="C48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1979,7 +1979,7 @@
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1990,7 +1990,7 @@
         <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2001,10 +2001,10 @@
         <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2020,7 +2020,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2036,7 +2036,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2047,26 +2047,26 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2077,65 +2077,65 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13" customHeight="1">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2146,10 +2146,10 @@
         <v>88</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2200,7 +2200,7 @@
     </row>
     <row r="83" spans="3:4">
       <c r="D83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="3:4">
@@ -2208,7 +2208,7 @@
     </row>
     <row r="85" spans="3:4">
       <c r="C85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
         <v>112</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="86" spans="3:4">
       <c r="C86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" t="s">
         <v>113</v>
@@ -2224,15 +2224,15 @@
     </row>
     <row r="87" spans="3:4">
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="89" spans="3:4">
       <c r="C89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
         <v>114</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="90" spans="3:4">
       <c r="C90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
         <v>115</v>
@@ -2256,145 +2256,145 @@
     </row>
     <row r="91" spans="3:4">
       <c r="C91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="D99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="D100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="D101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="D102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="D103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="3:4">
       <c r="D105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="D106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="D107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="3:4">
       <c r="D108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="D110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="3:4">
       <c r="D111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="4:5">
       <c r="D119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="D120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="4:5">
       <c r="D121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="4:5">
       <c r="D122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2431,13 +2431,13 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2472,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2492,21 +2492,21 @@
         <v>102</v>
       </c>
       <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>167</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="4820" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2240" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
   <si>
     <t>description</t>
   </si>
@@ -615,6 +615,15 @@
   </si>
   <si>
     <t>1A3dii_Domestic-navigation</t>
+  </si>
+  <si>
+    <t>6.C.2</t>
+  </si>
+  <si>
+    <t>Waste-incineration</t>
+  </si>
+  <si>
+    <t>Waste incineration - Other (non-biogenic)</t>
   </si>
 </sst>
 </file>
@@ -1476,11 +1485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2162,64 +2171,70 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>200</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="D80" t="s">
+    <row r="81" spans="3:4">
+      <c r="D81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
-      <c r="D83" s="1" t="s">
+    <row r="84" spans="3:4">
+      <c r="D84" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
-      <c r="D84" s="1"/>
-    </row>
     <row r="85" spans="3:4">
-      <c r="C85" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" t="s">
-        <v>112</v>
-      </c>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" t="s">
         <v>161</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="3:4">
@@ -2227,7 +2242,7 @@
         <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="3:4">
@@ -2235,7 +2250,7 @@
         <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="3:4">
@@ -2243,7 +2258,7 @@
         <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="3:4">
@@ -2251,7 +2266,7 @@
         <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="3:4">
@@ -2259,7 +2274,7 @@
         <v>161</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="3:4">
@@ -2267,7 +2282,7 @@
         <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="3:4">
@@ -2275,7 +2290,7 @@
         <v>161</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="3:4">
@@ -2283,7 +2298,7 @@
         <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="3:4">
@@ -2291,7 +2306,7 @@
         <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="3:4">
@@ -2299,7 +2314,7 @@
         <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="3:4">
@@ -2307,75 +2322,75 @@
         <v>161</v>
       </c>
       <c r="D97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="D99" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="D100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="D101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="D102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="D103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="D104" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="D105" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="D106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="D107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="3:4">
       <c r="D108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="D109" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="D110" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="111" spans="3:4">
       <c r="D111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="D112" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5">
-      <c r="D119" t="s">
-        <v>148</v>
-      </c>
-      <c r="E119" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="D120" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E120" t="s">
         <v>164</v>
@@ -2383,7 +2398,7 @@
     </row>
     <row r="121" spans="4:5">
       <c r="D121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E121" t="s">
         <v>164</v>
@@ -2391,15 +2406,22 @@
     </row>
     <row r="122" spans="4:5">
       <c r="D122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E122" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="123" spans="4:5">
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2459,7 +2481,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2472,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2549,7 +2570,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
